--- a/docs/module_software.xlsx
+++ b/docs/module_software.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scatacseqflow/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9F670-3BF7-194C-A09C-B5015AB8321D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB785D-00D2-474E-841D-566852770D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="1620" windowWidth="27640" windowHeight="16940" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Docker image</t>
   </si>
@@ -57,6 +58,9 @@
     <t>concatenate fastq files that belong to the same sample</t>
   </si>
   <si>
+    <t>pure bash</t>
+  </si>
+  <si>
     <t>Sub-workflow</t>
   </si>
   <si>
@@ -99,9 +103,6 @@
     <t>BWA_INDEX</t>
   </si>
   <si>
-    <t>DOWNLOAD_FROM_UCSC</t>
-  </si>
-  <si>
     <t>GET_PRIMARY_GENOME</t>
   </si>
   <si>
@@ -114,20 +115,119 @@
     <t>REMOVE_DUPLICATE</t>
   </si>
   <si>
-    <t>custom bash</t>
-  </si>
-  <si>
     <t>QUALIMAP</t>
   </si>
   <si>
     <t>GET_FRAGMENTS</t>
+  </si>
+  <si>
+    <t>Andrews, S. (2010). FastQC:  A Quality Control Tool for High Throughput Sequence Data [Online]. Available online at: http://www.bioinformatics.babraham.ac.uk/projects/fastqc/</t>
+  </si>
+  <si>
+    <t>GET_10XGENOMICS_FASTQ*</t>
+  </si>
+  <si>
+    <t>sinto</t>
+  </si>
+  <si>
+    <t>hukai916/sinto_xenial:0.1</t>
+  </si>
+  <si>
+    <t>hukai916/r_sc_atac:0.1</t>
+  </si>
+  <si>
+    <t>custom R script</t>
+  </si>
+  <si>
+    <t>hukai916/pheniqs_xenial:0.1</t>
+  </si>
+  <si>
+    <t>pheniqs, custom Python scripts</t>
+  </si>
+  <si>
+    <t>hukai916/seqkit_0.16.1:0.1</t>
+  </si>
+  <si>
+    <t>seqkit</t>
+  </si>
+  <si>
+    <t>hukai916/cutadapt_xenial:0.1</t>
+  </si>
+  <si>
+    <t>cutadapt</t>
+  </si>
+  <si>
+    <t>hukai916/bwa_xenial:0.1</t>
+  </si>
+  <si>
+    <t>bwa</t>
+  </si>
+  <si>
+    <t>hukai916/miniconda3_xenial:0.1</t>
+  </si>
+  <si>
+    <t>wget</t>
+  </si>
+  <si>
+    <t>samtools and bash</t>
+  </si>
+  <si>
+    <t>samtools and bash (awk)</t>
+  </si>
+  <si>
+    <t>hukai916/pysam_xenial:0.1</t>
+  </si>
+  <si>
+    <t>custom Python code, samtools</t>
+  </si>
+  <si>
+    <t>hukai916/qualimap_xenial:0.1</t>
+  </si>
+  <si>
+    <t>qualimap</t>
+  </si>
+  <si>
+    <t>hukai916/sinto_xenial:0.2</t>
+  </si>
+  <si>
+    <t>PREPROCESS_10XGENOMICS</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_FROM_UCSC_GTF</t>
+  </si>
+  <si>
+    <t>FIX_UCSC_GTF</t>
+  </si>
+  <si>
+    <t>CELLRANGER_INDEX</t>
+  </si>
+  <si>
+    <t>CELLRANGER_ATAC_COUNT</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_FROM_UCSC*</t>
+  </si>
+  <si>
+    <t>GET_PRIMARY_GENOME*</t>
+  </si>
+  <si>
+    <t>hukai916/miniconda3_bio:0.1</t>
+  </si>
+  <si>
+    <t>custom Python code</t>
+  </si>
+  <si>
+    <t>hukai916/cellranger_atat_2.0.0:0.1</t>
+  </si>
+  <si>
+    <t>cellranger-atac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +238,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -162,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,25 +596,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F55325-D17D-694B-BA79-190199DCE89A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -520,18 +629,18 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -540,112 +649,301 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4C11B6-A3CD-3A4A-9026-2605324DC6E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/module_software.xlsx
+++ b/docs/module_software.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scatacseqflow/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB785D-00D2-474E-841D-566852770D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CBDCA-6B63-1443-A0A8-DE4069266572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1620" windowWidth="27640" windowHeight="16940" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
+    <workbookView xWindow="2340" yWindow="680" windowWidth="27640" windowHeight="16940" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="195">
   <si>
     <t>Docker image</t>
   </si>
@@ -76,9 +76,6 @@
     <t>References</t>
   </si>
   <si>
-    <t>FastQC</t>
-  </si>
-  <si>
     <t>perform fastq sequence quality assessment with FastQC</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>GET_FRAGMENTS</t>
   </si>
   <si>
-    <t>Andrews, S. (2010). FastQC:  A Quality Control Tool for High Throughput Sequence Data [Online]. Available online at: http://www.bioinformatics.babraham.ac.uk/projects/fastqc/</t>
-  </si>
-  <si>
     <t>GET_10XGENOMICS_FASTQ*</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>hukai916/pheniqs_xenial:0.1</t>
   </si>
   <si>
-    <t>pheniqs, custom Python scripts</t>
-  </si>
-  <si>
     <t>hukai916/seqkit_0.16.1:0.1</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>hukai916/cutadapt_xenial:0.1</t>
   </si>
   <si>
-    <t>cutadapt</t>
-  </si>
-  <si>
     <t>hukai916/bwa_xenial:0.1</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>wget</t>
   </si>
   <si>
-    <t>samtools and bash</t>
-  </si>
-  <si>
     <t>samtools and bash (awk)</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>hukai916/qualimap_xenial:0.1</t>
   </si>
   <si>
-    <t>qualimap</t>
-  </si>
-  <si>
     <t>hukai916/sinto_xenial:0.2</t>
   </si>
   <si>
@@ -221,13 +203,430 @@
   </si>
   <si>
     <t>cellranger-atac</t>
+  </si>
+  <si>
+    <t>add barcode to the front of fastq name line</t>
+  </si>
+  <si>
+    <t>correct barcodes and add barcode to fastq</t>
+  </si>
+  <si>
+    <t>correct barcodes that are with 1 mismatch</t>
+  </si>
+  <si>
+    <t>re-pair fastq files</t>
+  </si>
+  <si>
+    <t>trim off adapter sequences</t>
+  </si>
+  <si>
+    <t>re-pair fastq files (the same to MATCH_READS)</t>
+  </si>
+  <si>
+    <t>index genome file</t>
+  </si>
+  <si>
+    <t>download genome fasta from UCSC website</t>
+  </si>
+  <si>
+    <t>retrieve the primary genome from downloaded UCSC genome</t>
+  </si>
+  <si>
+    <t>map reads to genome with BWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter out unqualified reads from bam file </t>
+  </si>
+  <si>
+    <t>remove PCR duplicated fragments</t>
+  </si>
+  <si>
+    <t>perform bam QC analysis</t>
+  </si>
+  <si>
+    <t>get fragment file from bam</t>
+  </si>
+  <si>
+    <t>download GTF file from UCSC website</t>
+  </si>
+  <si>
+    <t>repair GTF to be compatible with cellranger-atac</t>
+  </si>
+  <si>
+    <t>create cellranger_atac genome index file</t>
+  </si>
+  <si>
+    <t>invoke cellranger_atac count command</t>
+  </si>
+  <si>
+    <t>DOWNSTRAM</t>
+  </si>
+  <si>
+    <t>OTHER MODULES</t>
+  </si>
+  <si>
+    <t>ARCHR_GET_ANNOTATION_CUSTOM</t>
+  </si>
+  <si>
+    <t>ARCHR_CREATE_ARROWFILES_ANNOTATION</t>
+  </si>
+  <si>
+    <t>ARCHR_ADD_DOUBLETSCORES</t>
+  </si>
+  <si>
+    <t>ARCHR_GET_ANNOTATION</t>
+  </si>
+  <si>
+    <t>ARCHR_ARCHRPROJECT_ANNOTATION</t>
+  </si>
+  <si>
+    <t>ARCHR_ARCHRPROJECT</t>
+  </si>
+  <si>
+    <t>ARCHR_ARCHRPROJECT_QC</t>
+  </si>
+  <si>
+    <t>ARCHR_DIMENSION_REDUCTION</t>
+  </si>
+  <si>
+    <t>ARCHR_FILTER_DOUBLETS</t>
+  </si>
+  <si>
+    <t>ARCHR_BATCH_CORRECTION</t>
+  </si>
+  <si>
+    <t>ARCHR_CLUSTERING</t>
+  </si>
+  <si>
+    <t>ARCHR_EMBEDDING</t>
+  </si>
+  <si>
+    <t>ARCHR_MARKER_GENE</t>
+  </si>
+  <si>
+    <t>ARCHR_PSEUDO_BULK_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_SCRNASEQ_UNCONSTRAINED</t>
+  </si>
+  <si>
+    <t>ARCHR_PSEUDO_BULK_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_SCRNASEQ_CONSTRAINED</t>
+  </si>
+  <si>
+    <t>ARCHR_CALL_PEAKS_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_CALL_PEAKS_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_GET_MARKER_PEAKS_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_GET_MARKER_PEAKS_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_MARKER_PEAKS_IN_TRACKS_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_MARKER_PEAKS_IN_TRACKS_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_PAIRWISE_TEST_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_PAIRWISE_TEST_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_MOTIF_ENRICHMENT_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_MOTIF_ENRICHMENT_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_MOTIF_DEVIATIONS_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_MOTIF_DEVIATIONS_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_FOOTPRINTING_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_FOOTPRINTING_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_COACCESSIBILITY_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_COACCESSIBILITY_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_PEAK2GENELINKAGE_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_GET_POSITIVE_TF_REGULATOR_CLUSTERS</t>
+  </si>
+  <si>
+    <t>ARCHR_GET_POSITIVE_TF_REGULATOR_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_TRAJECTORY_CLUSTERS2</t>
+  </si>
+  <si>
+    <t>ARCHR_GET_CLUSTERING_TSV</t>
+  </si>
+  <si>
+    <t>hukai916/r_sc:0.5</t>
+  </si>
+  <si>
+    <t>FastQC [1]</t>
+  </si>
+  <si>
+    <t>sinto [2]</t>
+  </si>
+  <si>
+    <t>pheniqs [3], custom Python scripts</t>
+  </si>
+  <si>
+    <t>[1] Andrews, S. (2010). FastQC:  A Quality Control Tool for High Throughput Sequence Data [Online]. Available online at: http://www.bioinformatics.babraham.ac.uk/projects/fastqc/</t>
+  </si>
+  <si>
+    <t>[2] https://timoast.github.io/sinto/</t>
+  </si>
+  <si>
+    <t>[3] https://bmcbioinformatics.biomedcentral.com/articles/10.1186/s12859-021-04267-5</t>
+  </si>
+  <si>
+    <t>seqkit [4]</t>
+  </si>
+  <si>
+    <t>cutadapt [5]</t>
+  </si>
+  <si>
+    <t>bwa [6]</t>
+  </si>
+  <si>
+    <t>samtools [7] and bash</t>
+  </si>
+  <si>
+    <t>qualimap [8]</t>
+  </si>
+  <si>
+    <t>cellranger-atac [9]</t>
+  </si>
+  <si>
+    <t>wrapper of createArrowFiles</t>
+  </si>
+  <si>
+    <t>wrapper of addDoubletScores</t>
+  </si>
+  <si>
+    <t>add doubletscore</t>
+  </si>
+  <si>
+    <t>Raw Dockerfile</t>
+  </si>
+  <si>
+    <t>wrapper of createGene/GenomeAnnotation [ArchR, 10]</t>
+  </si>
+  <si>
+    <t>wrapper of createGene/GenomeAnnotation</t>
+  </si>
+  <si>
+    <t>build gene/genomeAnnotation files with Bioconductor files</t>
+  </si>
+  <si>
+    <t>build gene/genomeAnnotation files with custom user files</t>
+  </si>
+  <si>
+    <t>ARCHR_CREATE_ARROWFILES</t>
+  </si>
+  <si>
+    <t>create arrowfiles</t>
+  </si>
+  <si>
+    <t>create arrowfiles with annotation files</t>
+  </si>
+  <si>
+    <t>wrapper of ArchRProject</t>
+  </si>
+  <si>
+    <t>create ArchRProject object</t>
+  </si>
+  <si>
+    <t>create ArchRProject object with annotation files</t>
+  </si>
+  <si>
+    <t>wrapper of filterDoublets</t>
+  </si>
+  <si>
+    <t>filter out cells that contain doublets</t>
+  </si>
+  <si>
+    <t>wrapper of plotGroups</t>
+  </si>
+  <si>
+    <t>create various QC plots</t>
+  </si>
+  <si>
+    <t>wrapper of addIterativeLSI</t>
+  </si>
+  <si>
+    <t>perform dimension reduction</t>
+  </si>
+  <si>
+    <t>wrapper of addHarmony</t>
+  </si>
+  <si>
+    <t>correct batch effect</t>
+  </si>
+  <si>
+    <t>wrapper of addClusters</t>
+  </si>
+  <si>
+    <t>perform clustering analysis</t>
+  </si>
+  <si>
+    <t>wrapper of addTSNE/addUMAP/plotEmbedding</t>
+  </si>
+  <si>
+    <t>perform single-cell embedding</t>
+  </si>
+  <si>
+    <t>wrapper of getMarkerFeatures</t>
+  </si>
+  <si>
+    <t>find marker genes for each cluster</t>
+  </si>
+  <si>
+    <t>wrapper of addGeneIntegrationMatrix</t>
+  </si>
+  <si>
+    <t>perform unconstrained scRNAseq integration</t>
+  </si>
+  <si>
+    <t>perform constrained scRNAseq integration</t>
+  </si>
+  <si>
+    <t>wrapper of addGroupCoverages</t>
+  </si>
+  <si>
+    <t>wrapper of addReproduciblePeakSet</t>
+  </si>
+  <si>
+    <t>find marker peaks for each scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>add pseudo bulks using integrated scRNA-seq clusterings</t>
+  </si>
+  <si>
+    <t>add pseudo bulks using scATAC-seq clusterings</t>
+  </si>
+  <si>
+    <t>find marker peaks for each integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>call peaks for each scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>call peaks for each integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>plot marker peaks for each scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>plot marker peaks for each integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>wrapper of plotBrowserTrack</t>
+  </si>
+  <si>
+    <t>perform pairwise testing for selected scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>perform pairwise testing for selected integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>wrapper of addMotifAnnotations, peakAnnoEnrichment</t>
+  </si>
+  <si>
+    <t>perform motif enrichment analysis using scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>perform motif enrichment analysis using integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>wrapper of addDeviationsMatrix, getVarDeviations</t>
+  </si>
+  <si>
+    <t>perform motif deviation analysis using scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>perform motif deviation analysis using integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>plot footprints using scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>plot footprints using integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>wrapper of addCoAccessibility, getCoAccessibility</t>
+  </si>
+  <si>
+    <t>wrapper of getFootprints, plotFootprints</t>
+  </si>
+  <si>
+    <t>perform peak coaccessibility analysis with scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>perform peak coaccessibility analysis with integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>wrapper of addPeak2GeneLinks, getPeak2GeneLinks</t>
+  </si>
+  <si>
+    <t>perform peak2genelinkage analysis with integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>wrapper of getGroupSE, correlateMatrices</t>
+  </si>
+  <si>
+    <t>get positive TF regulators with scATAC-seq clusters</t>
+  </si>
+  <si>
+    <t>get positive TF regulators with integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>wrapper of trajectory analysis related ArchR functions</t>
+  </si>
+  <si>
+    <t>perform cell trajectory analysis with integrated scRNA-seq clusters</t>
+  </si>
+  <si>
+    <t>custome R script</t>
+  </si>
+  <si>
+    <t>output a tsv file containing the clustering results</t>
+  </si>
+  <si>
+    <t>SPLIT_BED</t>
+  </si>
+  <si>
+    <t>SPLIT_BAM</t>
+  </si>
+  <si>
+    <t>MULTIQC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +643,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -268,11 +674,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,7 +683,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,343 +1011,1012 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F55325-D17D-694B-BA79-190199DCE89A}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="52.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.6640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="E25:E65"/>
+    <mergeCell ref="A25:A63"/>
+    <mergeCell ref="A64:A66"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/docs/module_software.xlsx
+++ b/docs/module_software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihu/Projects/workflow/scatacseqflow/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA29444-8D62-3048-A8F0-F3A6D21B5ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA296E5-8108-DD4E-8803-5B04AB46E00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1360" windowWidth="27640" windowHeight="16940" xr2:uid="{D5566E01-952C-494C-8CCC-37924E7B856D}"/>
   </bookViews>
@@ -1055,9 +1055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F55325-D17D-694B-BA79-190199DCE89A}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="167" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
